--- a/Tarea1_Punto3.xlsx
+++ b/Tarea1_Punto3.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="24940" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Latitud P</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>Radio de la Tierra</t>
+  </si>
+  <si>
+    <t>c(deg)</t>
+  </si>
+  <si>
+    <t>Eura.-Pacif.</t>
+  </si>
+  <si>
+    <t>Pacif.- Eura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azimuth </t>
+  </si>
+  <si>
+    <t>Azimuth</t>
   </si>
 </sst>
 </file>
@@ -368,8 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,46 +409,7 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,8 +438,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -467,6 +487,8 @@
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -475,6 +497,8 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,6 +613,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3340100" y="8445500"/>
+          <a:ext cx="1549400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11226800" y="1054100"/>
           <a:ext cx="1549400" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -925,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -938,109 +1005,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14">
       <c r="J9" t="s">
@@ -1059,357 +1126,357 @@
       </c>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="3"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="48" spans="3:8">
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20" t="s">
+      <c r="I51" s="6"/>
+      <c r="J51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="21" t="s">
+      <c r="K51" s="6"/>
+      <c r="L51" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="22">
+      <c r="C52" s="9">
         <v>24.4</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="9">
         <v>17.7</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="10">
         <v>32.25</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="10">
         <v>75.81</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="11">
         <f>RADIANS(E52)</f>
         <v>0.56286868376817123</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="11">
         <f>RADIANS(F52)</f>
         <v>1.3231341059369013</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26">
-        <f>DEGREES(ACOS((SIN(G52)*SIN($C$53))+(COS(G52)*COS($C$53)*COS($D$53-H52))))</f>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13">
+        <f t="shared" ref="J52:J61" si="0">DEGREES(ACOS((SIN(G52)*SIN($C$53))+(COS(G52)*COS($C$53)*COS($D$53-H52))))</f>
         <v>51.147137415319271</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="27">
+      <c r="K52" s="12"/>
+      <c r="L52" s="14">
         <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J52))</f>
         <v>4.5894876624208409</v>
       </c>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="22">
+      <c r="C53" s="9">
         <f>RADIANS(C52)</f>
         <v>0.42586033748661639</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="9">
         <f>RADIANS(D52)</f>
         <v>0.30892327760299632</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="10">
         <v>31.22</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="10">
         <v>76.61</v>
       </c>
-      <c r="G53" s="24">
-        <f t="shared" ref="G53:G61" si="0">RADIANS(E53)</f>
+      <c r="G53" s="11">
+        <f t="shared" ref="G53:G61" si="1">RADIANS(E53)</f>
         <v>0.54489179247262964</v>
       </c>
-      <c r="H53" s="24">
-        <f t="shared" ref="H53:H61" si="1">RADIANS(F53)</f>
+      <c r="H53" s="11">
+        <f t="shared" ref="H53:H61" si="2">RADIANS(F53)</f>
         <v>1.3370967399528559</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26">
-        <f>DEGREES(ACOS((SIN(G53)*SIN($C$53))+(COS(G53)*COS($C$53)*COS($D$53-H53))))</f>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13">
+        <f t="shared" si="0"/>
         <v>51.954785456502279</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J53))</f>
+      <c r="K53" s="12"/>
+      <c r="L53" s="14">
+        <f t="shared" ref="L52:L61" si="3">(PI()/180)*$K$9*$N$9*SIN(RADIANS(J53))</f>
         <v>4.6411436013606764</v>
       </c>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10">
         <v>29.84</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="10">
         <v>78.34</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52080624879510795</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3672909360123577</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="13">
         <f t="shared" si="0"/>
-        <v>0.52080624879510795</v>
-      </c>
-      <c r="H54" s="24">
+        <v>53.63990801929269</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="14">
+        <f t="shared" si="3"/>
+        <v>4.7459404087329169</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10">
+        <v>28.99</v>
+      </c>
+      <c r="F55" s="10">
+        <v>80.31</v>
+      </c>
+      <c r="G55" s="11">
         <f t="shared" si="1"/>
-        <v>1.3672909360123577</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26">
-        <f>DEGREES(ACOS((SIN(G54)*SIN($C$53))+(COS(G54)*COS($C$53)*COS($D$53-H54))))</f>
-        <v>53.63990801929269</v>
-      </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J54))</f>
-        <v>4.7459404087329169</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12">
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23">
-        <v>28.99</v>
-      </c>
-      <c r="F55" s="23">
-        <v>80.31</v>
-      </c>
-      <c r="G55" s="24">
+        <v>0.50597095015315607</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4016739222766461</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="13">
         <f t="shared" si="0"/>
-        <v>0.50597095015315607</v>
-      </c>
-      <c r="H55" s="24">
-        <f t="shared" si="1"/>
-        <v>1.4016739222766461</v>
-      </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26">
-        <f>DEGREES(ACOS((SIN(G55)*SIN($C$53))+(COS(G55)*COS($C$53)*COS($D$53-H55))))</f>
         <v>55.481246676773829</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J55))</f>
+      <c r="K55" s="12"/>
+      <c r="L55" s="14">
+        <f t="shared" si="3"/>
         <v>4.8557556896800245</v>
       </c>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10">
         <v>27.88</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="10">
         <v>82.84</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="11">
         <f>RADIANS(E56)</f>
         <v>0.48659779545601906</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4458307523521026</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="13">
+        <f t="shared" si="0"/>
+        <v>57.886926925445174</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="14">
+        <f t="shared" si="3"/>
+        <v>4.9916552890187367</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10">
+        <v>27.4</v>
+      </c>
+      <c r="F57" s="10">
+        <v>84.83</v>
+      </c>
+      <c r="G57" s="11">
         <f t="shared" si="1"/>
-        <v>1.4458307523521026</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26">
-        <f>DEGREES(ACOS((SIN(G56)*SIN($C$53))+(COS(G56)*COS($C$53)*COS($D$53-H56))))</f>
-        <v>57.886926925445174</v>
-      </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J56))</f>
-        <v>4.9916552890187367</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23">
-        <v>27.4</v>
-      </c>
-      <c r="F57" s="23">
-        <v>84.83</v>
-      </c>
-      <c r="G57" s="24">
+        <v>0.4782202150464463</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4805628044667898</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="13">
         <f t="shared" si="0"/>
-        <v>0.4782202150464463</v>
-      </c>
-      <c r="H57" s="24">
+        <v>59.712805373181553</v>
+      </c>
+      <c r="K57" s="12"/>
+      <c r="L57" s="14">
+        <f t="shared" si="3"/>
+        <v>5.0889402646415309</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10">
+        <v>26.87</v>
+      </c>
+      <c r="F58" s="10">
+        <v>87.02</v>
+      </c>
+      <c r="G58" s="11">
         <f t="shared" si="1"/>
-        <v>1.4805628044667898</v>
-      </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26">
-        <f>DEGREES(ACOS((SIN(G57)*SIN($C$53))+(COS(G57)*COS($C$53)*COS($D$53-H57))))</f>
-        <v>59.712805373181553</v>
-      </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J57))</f>
-        <v>5.0889402646415309</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12">
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23">
-        <v>26.87</v>
-      </c>
-      <c r="F58" s="23">
-        <v>87.02</v>
-      </c>
-      <c r="G58" s="24">
+        <v>0.46896997001087637</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5187855150854654</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="13">
         <f t="shared" si="0"/>
-        <v>0.46896997001087637</v>
-      </c>
-      <c r="H58" s="24">
+        <v>61.732169304830393</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="14">
+        <f t="shared" si="3"/>
+        <v>5.1905124599379189</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10">
+        <v>26.84</v>
+      </c>
+      <c r="F59" s="10">
+        <v>89.12</v>
+      </c>
+      <c r="G59" s="11">
         <f t="shared" si="1"/>
-        <v>1.5187855150854654</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26">
-        <f>DEGREES(ACOS((SIN(G58)*SIN($C$53))+(COS(G58)*COS($C$53)*COS($D$53-H58))))</f>
-        <v>61.732169304830393</v>
-      </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J58))</f>
-        <v>5.1905124599379189</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12">
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23">
-        <v>26.84</v>
-      </c>
-      <c r="F59" s="23">
-        <v>89.12</v>
-      </c>
-      <c r="G59" s="24">
+        <v>0.46844637123527805</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5554374293773465</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="13">
         <f t="shared" si="0"/>
-        <v>0.46844637123527805</v>
-      </c>
-      <c r="H59" s="24">
+        <v>63.549346884017361</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="14">
+        <f t="shared" si="3"/>
+        <v>5.2764073368345112</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10">
+        <v>26.94</v>
+      </c>
+      <c r="F60" s="10">
+        <v>92.45</v>
+      </c>
+      <c r="G60" s="11">
         <f t="shared" si="1"/>
-        <v>1.5554374293773465</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26">
-        <f>DEGREES(ACOS((SIN(G59)*SIN($C$53))+(COS(G59)*COS($C$53)*COS($D$53-H59))))</f>
-        <v>63.549346884017361</v>
-      </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J59))</f>
-        <v>5.2764073368345112</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12">
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23">
-        <v>26.94</v>
-      </c>
-      <c r="F60" s="23">
-        <v>92.45</v>
-      </c>
-      <c r="G60" s="24">
+        <v>0.47019170048727238</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6135568934687576</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13">
         <f t="shared" si="0"/>
-        <v>0.47019170048727238</v>
-      </c>
-      <c r="H60" s="24">
+        <v>66.37781487406599</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60" s="14">
+        <f t="shared" si="3"/>
+        <v>5.3995150155240017</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10">
+        <v>27.75</v>
+      </c>
+      <c r="F61" s="10">
+        <v>94.88</v>
+      </c>
+      <c r="G61" s="11">
         <f t="shared" si="1"/>
-        <v>1.6135568934687576</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26">
-        <f>DEGREES(ACOS((SIN(G60)*SIN($C$53))+(COS(G60)*COS($C$53)*COS($D$53-H60))))</f>
-        <v>66.37781487406599</v>
-      </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J60))</f>
-        <v>5.3995150155240017</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12">
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23">
-        <v>27.75</v>
-      </c>
-      <c r="F61" s="23">
-        <v>94.88</v>
-      </c>
-      <c r="G61" s="24">
+        <v>0.48432886742842646</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6559683942922199</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13">
         <f t="shared" si="0"/>
-        <v>0.48432886742842646</v>
-      </c>
-      <c r="H61" s="24">
-        <f t="shared" si="1"/>
-        <v>1.6559683942922199</v>
-      </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26">
-        <f>DEGREES(ACOS((SIN(G61)*SIN($C$53))+(COS(G61)*COS($C$53)*COS($D$53-H61))))</f>
         <v>68.211752290864155</v>
       </c>
-      <c r="K61" s="25"/>
-      <c r="L61" s="27">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J61))</f>
+      <c r="K61" s="12"/>
+      <c r="L61" s="14">
+        <f t="shared" si="3"/>
         <v>5.4723232115885168</v>
       </c>
     </row>
     <row r="63" spans="3:12">
-      <c r="L63" s="28">
+      <c r="L63" s="15">
         <f>AVERAGE(L52:L61)</f>
         <v>5.025168093973968</v>
       </c>
     </row>
     <row r="65" spans="11:12">
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="30">
+      <c r="L65" s="17">
         <f>STDEV(L52:L61)</f>
         <v>0.31264003858512807</v>
       </c>
@@ -1433,4 +1500,146 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14">
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <f>(9)*(10^-7)</f>
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <f>6371*(10^5)</f>
+        <v>637100000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8">
+        <v>61.1</v>
+      </c>
+      <c r="D8">
+        <v>85.8</v>
+      </c>
+      <c r="E8">
+        <v>50.125799999999998</v>
+      </c>
+      <c r="F8">
+        <v>167.97980000000001</v>
+      </c>
+      <c r="G8">
+        <f>RADIANS(E8)</f>
+        <v>0.87486025019617364</v>
+      </c>
+      <c r="H8">
+        <f>RADIANS(F8)</f>
+        <v>2.9318005868415709</v>
+      </c>
+      <c r="J8">
+        <f>DEGREES(ACOS((SIN(G8)*SIN($C$9))+(COS(G8)*COS($C$9)*COS($D$9-H8))))</f>
+        <v>44.435728655895474</v>
+      </c>
+      <c r="L8">
+        <f>(PI()/180)*$K$2*$N$2*SIN(RADIANS(J8))</f>
+        <v>7.0063685712639572</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9">
+        <f>RADIANS(C8)</f>
+        <v>1.0663961729685354</v>
+      </c>
+      <c r="D9">
+        <f>RADIANS(D8)</f>
+        <v>1.4974924982111346</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="J12">
+        <f>DEGREES(ASIN((COS(C9)*SIN(D9-F8))/SIN(J8)))</f>
+        <v>-1.3972004145774537</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <f>90+J12</f>
+        <v>88.602799585422545</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <f>360-J15</f>
+        <v>271.39720041457747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Tarea1_Punto3.xlsx
+++ b/Tarea1_Punto3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="14">
-        <f t="shared" ref="L52:L61" si="3">(PI()/180)*$K$9*$N$9*SIN(RADIANS(J53))</f>
+        <f t="shared" ref="L53:L61" si="3">(PI()/180)*$K$9*$N$9*SIN(RADIANS(J53))</f>
         <v>4.6411436013606764</v>
       </c>
     </row>
@@ -1504,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N17"/>
+  <dimension ref="C2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1563,7 +1563,7 @@
         <v>61.1</v>
       </c>
       <c r="D8">
-        <v>85.8</v>
+        <v>-85.8</v>
       </c>
       <c r="E8">
         <v>50.125799999999998</v>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="J8">
         <f>DEGREES(ACOS((SIN(G8)*SIN($C$9))+(COS(G8)*COS($C$9)*COS($D$9-H8))))</f>
-        <v>44.435728655895474</v>
+        <v>54.17349806907314</v>
       </c>
       <c r="L8">
         <f>(PI()/180)*$K$2*$N$2*SIN(RADIANS(J8))</f>
-        <v>7.0063685712639572</v>
+        <v>8.1140477598362057</v>
       </c>
     </row>
     <row r="9" spans="3:14">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D9">
         <f>RADIANS(D8)</f>
-        <v>1.4974924982111346</v>
+        <v>-1.4974924982111346</v>
       </c>
     </row>
     <row r="11" spans="3:14">
@@ -1606,7 +1606,7 @@
     <row r="12" spans="3:14">
       <c r="J12">
         <f>DEGREES(ASIN((COS(C9)*SIN(D9-F8))/SIN(J8)))</f>
-        <v>-1.3972004145774537</v>
+        <v>-6.7191506741135942</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -1618,10 +1618,10 @@
       </c>
       <c r="J15">
         <f>90+J12</f>
-        <v>88.602799585422545</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10">
+        <v>83.280849325886408</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
       <c r="H17" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1630,17 @@
       </c>
       <c r="J17">
         <f>360-J15</f>
-        <v>271.39720041457747</v>
+        <v>276.71915067411362</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21">
+        <f>DEGREES(ATAN((F21)))</f>
+        <v>55.388857815469606</v>
+      </c>
+      <c r="F21">
+        <f>7.1/4.9</f>
+        <v>1.4489795918367345</v>
       </c>
     </row>
   </sheetData>

--- a/Tarea1_Punto3.xlsx
+++ b/Tarea1_Punto3.xlsx
@@ -2,13 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Latitud P</t>
   </si>
@@ -135,27 +134,12 @@
   <si>
     <t>Radio de la Tierra</t>
   </si>
-  <si>
-    <t>c(deg)</t>
-  </si>
-  <si>
-    <t>Eura.-Pacif.</t>
-  </si>
-  <si>
-    <t>Pacif.- Eura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azimuth </t>
-  </si>
-  <si>
-    <t>Azimuth</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +193,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -254,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,86 +262,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -407,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,36 +346,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,16 +396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,8 +422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="1943100"/>
-          <a:ext cx="9296400" cy="4902200"/>
+          <a:off x="3835400" y="1943100"/>
+          <a:ext cx="5740400" cy="3027042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,13 +436,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -588,13 +474,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -613,49 +499,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3340100" y="8445500"/>
-          <a:ext cx="1549400" cy="482600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11226800" y="1054100"/>
           <a:ext cx="1549400" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -990,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N65"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1004,7 +847,7 @@
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23">
+    <row r="1" spans="1:15" ht="23">
       <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
@@ -1021,634 +864,476 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:14" ht="15" customHeight="1">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="J8" s="30" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="J6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="30" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="J9" t="s">
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K7">
         <f>(5.3)*(10^-7)</f>
         <v>5.3000000000000001E-7</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="N9">
+      <c r="N7">
         <f>6371*(10^5)</f>
         <v>637100000</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="28" t="s">
+    <row r="25" spans="3:8">
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="E43" s="29" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="E30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="E48" s="29" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="E35" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="3" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="8" t="s">
+      <c r="K37" s="6"/>
+      <c r="L37" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="3:12">
-      <c r="C52" s="9">
+    <row r="38" spans="3:12">
+      <c r="C38" s="9">
         <v>24.4</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D38" s="9">
         <v>17.7</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E38" s="10">
         <v>32.25</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F38" s="10">
         <v>75.81</v>
       </c>
-      <c r="G52" s="11">
-        <f>RADIANS(E52)</f>
+      <c r="G38" s="11">
+        <f>RADIANS(E38)</f>
         <v>0.56286868376817123</v>
       </c>
-      <c r="H52" s="11">
-        <f>RADIANS(F52)</f>
+      <c r="H38" s="11">
+        <f>RADIANS(F38)</f>
         <v>1.3231341059369013</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13">
-        <f t="shared" ref="J52:J61" si="0">DEGREES(ACOS((SIN(G52)*SIN($C$53))+(COS(G52)*COS($C$53)*COS($D$53-H52))))</f>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13">
+        <f t="shared" ref="J38:J47" si="0">DEGREES(ACOS((SIN(G38)*SIN($C$39))+(COS(G38)*COS($C$39)*COS($D$39-H38))))</f>
         <v>51.147137415319271</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="14">
-        <f>(PI()/180)*$K$9*$N$9*SIN(RADIANS(J52))</f>
+      <c r="K38" s="12"/>
+      <c r="L38" s="14">
+        <f>(PI()/180)*$K$7*$N$7*SIN(RADIANS(J38))</f>
         <v>4.5894876624208409</v>
       </c>
     </row>
-    <row r="53" spans="3:12">
-      <c r="C53" s="9">
-        <f>RADIANS(C52)</f>
+    <row r="39" spans="3:12">
+      <c r="C39" s="9">
+        <f>RADIANS(C38)</f>
         <v>0.42586033748661639</v>
       </c>
-      <c r="D53" s="9">
-        <f>RADIANS(D52)</f>
+      <c r="D39" s="9">
+        <f>RADIANS(D38)</f>
         <v>0.30892327760299632</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E39" s="10">
         <v>31.22</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F39" s="10">
         <v>76.61</v>
       </c>
-      <c r="G53" s="11">
-        <f t="shared" ref="G53:G61" si="1">RADIANS(E53)</f>
+      <c r="G39" s="11">
+        <f t="shared" ref="G39:G47" si="1">RADIANS(E39)</f>
         <v>0.54489179247262964</v>
       </c>
-      <c r="H53" s="11">
-        <f t="shared" ref="H53:H61" si="2">RADIANS(F53)</f>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:H47" si="2">RADIANS(F39)</f>
         <v>1.3370967399528559</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13">
+      <c r="I39" s="12"/>
+      <c r="J39" s="13">
         <f t="shared" si="0"/>
         <v>51.954785456502279</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="14">
-        <f t="shared" ref="L53:L61" si="3">(PI()/180)*$K$9*$N$9*SIN(RADIANS(J53))</f>
+      <c r="K39" s="12"/>
+      <c r="L39" s="14">
+        <f t="shared" ref="L39:L47" si="3">(PI()/180)*$K$7*$N$7*SIN(RADIANS(J39))</f>
         <v>4.6411436013606764</v>
       </c>
     </row>
-    <row r="54" spans="3:12">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10">
+    <row r="40" spans="3:12">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10">
         <v>29.84</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F40" s="10">
         <v>78.34</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G40" s="11">
         <f t="shared" si="1"/>
         <v>0.52080624879510795</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H40" s="11">
         <f t="shared" si="2"/>
         <v>1.3672909360123577</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13">
+      <c r="I40" s="12"/>
+      <c r="J40" s="13">
         <f t="shared" si="0"/>
         <v>53.63990801929269</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="14">
+      <c r="K40" s="12"/>
+      <c r="L40" s="14">
         <f t="shared" si="3"/>
         <v>4.7459404087329169</v>
       </c>
     </row>
-    <row r="55" spans="3:12">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10">
+    <row r="41" spans="3:12">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10">
         <v>28.99</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F41" s="10">
         <v>80.31</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G41" s="11">
         <f t="shared" si="1"/>
         <v>0.50597095015315607</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H41" s="11">
         <f t="shared" si="2"/>
         <v>1.4016739222766461</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13">
+      <c r="I41" s="12"/>
+      <c r="J41" s="13">
         <f t="shared" si="0"/>
         <v>55.481246676773829</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="14">
+      <c r="K41" s="12"/>
+      <c r="L41" s="14">
         <f t="shared" si="3"/>
         <v>4.8557556896800245</v>
       </c>
     </row>
-    <row r="56" spans="3:12">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10">
+    <row r="42" spans="3:12">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10">
         <v>27.88</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F42" s="10">
         <v>82.84</v>
       </c>
-      <c r="G56" s="11">
-        <f>RADIANS(E56)</f>
+      <c r="G42" s="11">
+        <f>RADIANS(E42)</f>
         <v>0.48659779545601906</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H42" s="11">
         <f t="shared" si="2"/>
         <v>1.4458307523521026</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13">
+      <c r="I42" s="12"/>
+      <c r="J42" s="13">
         <f t="shared" si="0"/>
         <v>57.886926925445174</v>
       </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="14">
+      <c r="K42" s="12"/>
+      <c r="L42" s="14">
         <f t="shared" si="3"/>
         <v>4.9916552890187367</v>
       </c>
     </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10">
+    <row r="43" spans="3:12">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10">
         <v>27.4</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F43" s="10">
         <v>84.83</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G43" s="11">
         <f t="shared" si="1"/>
         <v>0.4782202150464463</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H43" s="11">
         <f t="shared" si="2"/>
         <v>1.4805628044667898</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13">
+      <c r="I43" s="12"/>
+      <c r="J43" s="13">
         <f t="shared" si="0"/>
         <v>59.712805373181553</v>
       </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="14">
+      <c r="K43" s="12"/>
+      <c r="L43" s="14">
         <f t="shared" si="3"/>
         <v>5.0889402646415309</v>
       </c>
     </row>
-    <row r="58" spans="3:12">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10">
+    <row r="44" spans="3:12">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10">
         <v>26.87</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F44" s="10">
         <v>87.02</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G44" s="11">
         <f t="shared" si="1"/>
         <v>0.46896997001087637</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H44" s="11">
         <f t="shared" si="2"/>
         <v>1.5187855150854654</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13">
+      <c r="I44" s="12"/>
+      <c r="J44" s="13">
         <f t="shared" si="0"/>
         <v>61.732169304830393</v>
       </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="14">
+      <c r="K44" s="12"/>
+      <c r="L44" s="14">
         <f t="shared" si="3"/>
         <v>5.1905124599379189</v>
       </c>
     </row>
-    <row r="59" spans="3:12">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10">
+    <row r="45" spans="3:12">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10">
         <v>26.84</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F45" s="10">
         <v>89.12</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G45" s="11">
         <f t="shared" si="1"/>
         <v>0.46844637123527805</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H45" s="11">
         <f t="shared" si="2"/>
         <v>1.5554374293773465</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13">
+      <c r="I45" s="12"/>
+      <c r="J45" s="13">
         <f t="shared" si="0"/>
         <v>63.549346884017361</v>
       </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="14">
+      <c r="K45" s="12"/>
+      <c r="L45" s="14">
         <f t="shared" si="3"/>
         <v>5.2764073368345112</v>
       </c>
     </row>
-    <row r="60" spans="3:12">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10">
+    <row r="46" spans="3:12">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10">
         <v>26.94</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F46" s="10">
         <v>92.45</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G46" s="11">
         <f t="shared" si="1"/>
         <v>0.47019170048727238</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H46" s="11">
         <f t="shared" si="2"/>
         <v>1.6135568934687576</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13">
+      <c r="I46" s="12"/>
+      <c r="J46" s="13">
         <f t="shared" si="0"/>
         <v>66.37781487406599</v>
       </c>
-      <c r="K60" s="12"/>
-      <c r="L60" s="14">
+      <c r="K46" s="12"/>
+      <c r="L46" s="14">
         <f t="shared" si="3"/>
         <v>5.3995150155240017</v>
       </c>
     </row>
-    <row r="61" spans="3:12">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10">
+    <row r="47" spans="3:12">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10">
         <v>27.75</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F47" s="10">
         <v>94.88</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G47" s="11">
         <f t="shared" si="1"/>
         <v>0.48432886742842646</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H47" s="11">
         <f t="shared" si="2"/>
         <v>1.6559683942922199</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13">
+      <c r="I47" s="12"/>
+      <c r="J47" s="13">
         <f t="shared" si="0"/>
         <v>68.211752290864155</v>
       </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="14">
+      <c r="K47" s="12"/>
+      <c r="L47" s="14">
         <f t="shared" si="3"/>
         <v>5.4723232115885168</v>
       </c>
     </row>
-    <row r="63" spans="3:12">
-      <c r="L63" s="15">
-        <f>AVERAGE(L52:L61)</f>
+    <row r="49" spans="11:12">
+      <c r="L49" s="15">
+        <f>AVERAGE(L38:L47)</f>
         <v>5.025168093973968</v>
       </c>
     </row>
-    <row r="65" spans="11:12">
-      <c r="K65" s="16" t="s">
+    <row r="51" spans="11:12">
+      <c r="K51" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="17">
-        <f>STDEV(L52:L61)</f>
+      <c r="L51" s="17">
+        <f>STDEV(L38:L47)</f>
         <v>0.31264003858512807</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N6"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A2:O5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.39000000000000007" bottom="0.39000000000000007" header="0.5" footer="0.5"/>
+  <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:14">
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <f>(9)*(10^-7)</f>
-        <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <f>6371*(10^5)</f>
-        <v>637100000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14">
-      <c r="C8">
-        <v>61.1</v>
-      </c>
-      <c r="D8">
-        <v>-85.8</v>
-      </c>
-      <c r="E8">
-        <v>50.125799999999998</v>
-      </c>
-      <c r="F8">
-        <v>167.97980000000001</v>
-      </c>
-      <c r="G8">
-        <f>RADIANS(E8)</f>
-        <v>0.87486025019617364</v>
-      </c>
-      <c r="H8">
-        <f>RADIANS(F8)</f>
-        <v>2.9318005868415709</v>
-      </c>
-      <c r="J8">
-        <f>DEGREES(ACOS((SIN(G8)*SIN($C$9))+(COS(G8)*COS($C$9)*COS($D$9-H8))))</f>
-        <v>54.17349806907314</v>
-      </c>
-      <c r="L8">
-        <f>(PI()/180)*$K$2*$N$2*SIN(RADIANS(J8))</f>
-        <v>8.1140477598362057</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14">
-      <c r="C9">
-        <f>RADIANS(C8)</f>
-        <v>1.0663961729685354</v>
-      </c>
-      <c r="D9">
-        <f>RADIANS(D8)</f>
-        <v>-1.4974924982111346</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14">
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14">
-      <c r="J12">
-        <f>DEGREES(ASIN((COS(C9)*SIN(D9-F8))/SIN(J8)))</f>
-        <v>-6.7191506741135942</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15">
-        <f>90+J12</f>
-        <v>83.280849325886408</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <f>360-J15</f>
-        <v>276.71915067411362</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21">
-        <f>DEGREES(ATAN((F21)))</f>
-        <v>55.388857815469606</v>
-      </c>
-      <c r="F21">
-        <f>7.1/4.9</f>
-        <v>1.4489795918367345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="70"/>
     </ext>
   </extLst>
 </worksheet>
